--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_1_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_1_25.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1390063.260709605</v>
+        <v>1390847.406647634</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1225477.018443406</v>
+        <v>1225477.018443405</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14829673.35797656</v>
+        <v>14829673.35797657</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -665,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>148.8506349098462</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
@@ -677,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>148.8506349098461</v>
-      </c>
-      <c r="V2" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +758,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -792,16 +794,16 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>17.62610975548111</v>
       </c>
       <c r="W3" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="X3" t="n">
-        <v>107.0227426068962</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -832,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -856,13 +858,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -902,10 +904,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="F5" t="n">
-        <v>205.5178444382804</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>15.30273751513505</v>
@@ -914,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>5.857562710407866</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -938,31 +940,31 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>158.8413341243909</v>
       </c>
     </row>
     <row r="6">
@@ -975,19 +977,19 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
         <v>112.2354442364965</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>7.692106705274854</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1032,7 +1034,7 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>69.52357329067431</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1041,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1093,16 +1095,16 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>44.30348359856712</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1139,22 +1141,22 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="F8" t="n">
-        <v>6.876045741711437</v>
-      </c>
       <c r="G8" t="n">
+        <v>181.0201173812374</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1175,10 +1177,10 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1187,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>2.334965129218968</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1199,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1221,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1257,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>33.68199545419522</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
@@ -1269,16 +1271,16 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>14.69006202085835</v>
+      </c>
+      <c r="X9" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="W9" t="n">
-        <v>0</v>
-      </c>
-      <c r="X9" t="n">
-        <v>0</v>
-      </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="10">
@@ -1294,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1312,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1339,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>39.82778746869523</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1379,19 +1381,19 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>19.20171008547518</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1415,28 +1417,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1449,7 +1451,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1458,7 +1460,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>42.14629172736426</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -1497,22 +1499,22 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
       </c>
       <c r="U12" t="n">
+        <v>181.0201173812374</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="V12" t="n">
-        <v>0</v>
-      </c>
-      <c r="W12" t="n">
-        <v>0</v>
-      </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y12" t="n">
         <v>205.5178444382804</v>
@@ -1546,13 +1548,13 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>133.186967585368</v>
+        <v>17.55829564281238</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1610,22 +1612,22 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>171.0294181666926</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="I14" t="n">
-        <v>205.5178444382804</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1649,13 +1651,13 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1667,7 +1669,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1689,22 +1691,22 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>72.85063401749088</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>96.23000894702319</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0.7465913262578567</v>
@@ -1734,13 +1736,13 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -1749,7 +1751,7 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1807,16 +1809,16 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>44.30348359856712</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1853,16 +1855,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>230.8744955960827</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H17" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>200.3360962888296</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -1907,7 +1909,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1920,31 +1922,31 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>62.13484214871502</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1968,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -1977,10 +1979,10 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>112.3422729492172</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -2017,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2041,10 +2043,10 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -2053,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2090,64 +2092,64 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
       <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="X20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="I20" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>33.80371536444976</v>
-      </c>
-      <c r="S20" t="n">
-        <v>209.0200695862453</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
-      </c>
-      <c r="X20" t="n">
-        <v>0</v>
-      </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="21">
@@ -2163,10 +2165,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -2181,7 +2183,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2211,7 +2213,7 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>84.56713651463427</v>
+        <v>149.3895849832727</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -2220,7 +2222,7 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -2239,67 +2241,67 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
-      </c>
-      <c r="W22" t="n">
-        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2321,7 +2323,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -2333,58 +2335,58 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
-      <c r="W23" t="n">
-        <v>212.2853856434421</v>
       </c>
       <c r="X23" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="24">
@@ -2394,7 +2396,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
@@ -2403,16 +2405,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2442,22 +2444,22 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>7.462486501116802</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>62.88143347497289</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -2476,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2518,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -2536,7 +2538,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2552,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2570,58 +2572,58 @@
         <v>241.0142888776591</v>
       </c>
       <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>212.285385643442</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0</v>
-      </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2634,7 +2636,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2646,13 +2648,13 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2691,16 +2693,16 @@
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>69.94009064024223</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>115.6677505121453</v>
       </c>
     </row>
     <row r="28">
@@ -2722,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2761,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2792,10 +2794,10 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2813,7 +2815,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -2834,19 +2836,19 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>72.47049842454879</v>
       </c>
       <c r="U29" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>241.0142888776591</v>
@@ -2855,7 +2857,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2874,16 +2876,16 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2916,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -2928,16 +2930,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>4.122280040031055</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>100.4200233623268</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -3026,13 +3028,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C32" t="n">
-        <v>3.26531605719669</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -3044,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>241.0142888776591</v>
+        <v>212.285385643442</v>
       </c>
     </row>
     <row r="33">
@@ -3105,7 +3107,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -3114,22 +3116,22 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3153,22 +3155,22 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>44.53474103803759</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>167.5873293802472</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -3190,13 +3192,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3263,76 +3265,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R35" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S35" t="n">
+        <v>52.42556848774752</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y35" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="F35" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V35" t="n">
-        <v>212.285385643442</v>
-      </c>
-      <c r="W35" t="n">
-        <v>0</v>
-      </c>
-      <c r="X35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3345,7 +3347,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>70.63127589868714</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
@@ -3357,7 +3359,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>131.0021006180167</v>
       </c>
       <c r="H36" t="n">
         <v>112.2354442364965</v>
@@ -3366,7 +3368,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3393,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -3402,7 +3404,7 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -3466,19 +3468,19 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3500,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3515,16 +3517,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3545,13 +3547,13 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>40.47627913313517</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3560,7 +3562,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>241.0142888776591</v>
@@ -3569,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="39">
@@ -3582,13 +3584,13 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -3633,22 +3635,22 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>50.05769526855297</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
-        <v>172.0093569884556</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -3676,10 +3678,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="I40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3782,31 +3784,31 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>21.16030022554292</v>
       </c>
       <c r="U41" t="n">
-        <v>181.0201173812374</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="W41" t="n">
-        <v>0</v>
-      </c>
       <c r="X41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3816,19 +3818,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>21.82829601151334</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -3864,16 +3866,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>105.3690580549763</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -3885,7 +3887,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3898,7 +3900,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3986,19 +3988,19 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>169.0708280266249</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4053,13 +4055,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>68.78467314474098</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -4071,7 +4073,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4104,25 +4106,25 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>105.3690580549763</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4135,7 +4137,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4186,7 +4188,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4304,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>38.84423892561444</v>
+        <v>396.792197863116</v>
       </c>
       <c r="C2" t="n">
-        <v>38.84423892561444</v>
+        <v>396.792197863116</v>
       </c>
       <c r="D2" t="n">
-        <v>38.84423892561444</v>
+        <v>396.792197863116</v>
       </c>
       <c r="E2" t="n">
-        <v>38.84423892561444</v>
+        <v>246.4380211865037</v>
       </c>
       <c r="F2" t="n">
-        <v>31.89873817641097</v>
+        <v>239.4925204373003</v>
       </c>
       <c r="G2" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="H2" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="I2" t="n">
         <v>16.44142755506243</v>
@@ -4337,13 +4339,13 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M2" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N2" t="n">
-        <v>583.2163723184226</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O2" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P2" t="n">
         <v>822.0713777531216</v>
@@ -4355,25 +4357,25 @@
         <v>811.9797623848946</v>
       </c>
       <c r="S2" t="n">
+        <v>811.9797623848946</v>
+      </c>
+      <c r="T2" t="n">
+        <v>811.9797623848946</v>
+      </c>
+      <c r="U2" t="n">
+        <v>811.9797623848946</v>
+      </c>
+      <c r="V2" t="n">
+        <v>811.9797623848946</v>
+      </c>
+      <c r="W2" t="n">
+        <v>811.9797623848946</v>
+      </c>
+      <c r="X2" t="n">
+        <v>811.9797623848946</v>
+      </c>
+      <c r="Y2" t="n">
         <v>604.3859801240053</v>
-      </c>
-      <c r="T2" t="n">
-        <v>604.3859801240053</v>
-      </c>
-      <c r="U2" t="n">
-        <v>454.031803447393</v>
-      </c>
-      <c r="V2" t="n">
-        <v>246.4380211865037</v>
-      </c>
-      <c r="W2" t="n">
-        <v>246.4380211865037</v>
-      </c>
-      <c r="X2" t="n">
-        <v>38.84423892561444</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>38.84423892561444</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>130.5646958002688</v>
+        <v>220.8643249431123</v>
       </c>
       <c r="C3" t="n">
-        <v>130.5646958002688</v>
+        <v>220.8643249431123</v>
       </c>
       <c r="D3" t="n">
-        <v>130.5646958002688</v>
+        <v>220.8643249431123</v>
       </c>
       <c r="E3" t="n">
-        <v>130.5646958002688</v>
+        <v>220.8643249431123</v>
       </c>
       <c r="F3" t="n">
-        <v>130.5646958002688</v>
+        <v>220.8643249431123</v>
       </c>
       <c r="G3" t="n">
-        <v>130.5646958002688</v>
+        <v>220.8643249431123</v>
       </c>
       <c r="H3" t="n">
-        <v>17.19556020784815</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="I3" t="n">
         <v>17.19556020784815</v>
@@ -4413,16 +4415,16 @@
         <v>16.44142755506243</v>
       </c>
       <c r="L3" t="n">
-        <v>163.1080096386462</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="M3" t="n">
-        <v>366.5706756325438</v>
+        <v>219.90409354896</v>
       </c>
       <c r="N3" t="n">
-        <v>570.0333416264414</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="O3" t="n">
-        <v>570.0333416264414</v>
+        <v>626.8294255367553</v>
       </c>
       <c r="P3" t="n">
         <v>752.6768192397923</v>
@@ -4440,19 +4442,19 @@
         <v>822.0713777531216</v>
       </c>
       <c r="U3" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V3" t="n">
-        <v>614.4775954922324</v>
+        <v>804.2672264849589</v>
       </c>
       <c r="W3" t="n">
-        <v>406.8838132313431</v>
+        <v>596.6734442240696</v>
       </c>
       <c r="X3" t="n">
-        <v>298.7800328203368</v>
+        <v>389.0796619631803</v>
       </c>
       <c r="Y3" t="n">
-        <v>298.7800328203368</v>
+        <v>389.0796619631803</v>
       </c>
     </row>
     <row r="4">
@@ -4462,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="C4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="D4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="E4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="F4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="G4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="H4" t="n">
         <v>16.44142755506243</v>
@@ -4504,34 +4506,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P4" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q4" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>245.4092504478133</v>
+        <v>246.4380211865037</v>
       </c>
       <c r="C5" t="n">
-        <v>245.4092504478133</v>
+        <v>246.4380211865037</v>
       </c>
       <c r="D5" t="n">
-        <v>245.4092504478133</v>
+        <v>246.4380211865037</v>
       </c>
       <c r="E5" t="n">
-        <v>245.4092504478133</v>
+        <v>38.84423892561444</v>
       </c>
       <c r="F5" t="n">
-        <v>37.81546818692397</v>
+        <v>31.89873817641097</v>
       </c>
       <c r="G5" t="n">
-        <v>22.35815756557543</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H5" t="n">
-        <v>22.35815756557543</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I5" t="n">
         <v>16.44142755506243</v>
@@ -4568,7 +4570,7 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K5" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L5" t="n">
         <v>176.2910403306274</v>
@@ -4586,31 +4588,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q5" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R5" t="n">
-        <v>660.5968149695918</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S5" t="n">
-        <v>453.0030327087026</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T5" t="n">
-        <v>453.0030327087026</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U5" t="n">
-        <v>453.0030327087026</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V5" t="n">
-        <v>453.0030327087026</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W5" t="n">
-        <v>245.4092504478133</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X5" t="n">
-        <v>245.4092504478133</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="Y5" t="n">
-        <v>245.4092504478133</v>
+        <v>454.031803447393</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>544.2517638854906</v>
+        <v>814.3015730003187</v>
       </c>
       <c r="C6" t="n">
-        <v>369.7987346043636</v>
+        <v>814.3015730003187</v>
       </c>
       <c r="D6" t="n">
-        <v>220.8643249431123</v>
+        <v>665.3671633390675</v>
       </c>
       <c r="E6" t="n">
-        <v>220.8643249431123</v>
+        <v>506.1297083336119</v>
       </c>
       <c r="F6" t="n">
-        <v>220.8643249431123</v>
+        <v>359.5951503604969</v>
       </c>
       <c r="G6" t="n">
         <v>220.8643249431123</v>
@@ -4653,10 +4655,10 @@
         <v>345.2616536067974</v>
       </c>
       <c r="M6" t="n">
-        <v>345.2616536067974</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N6" t="n">
-        <v>366.5706756325438</v>
+        <v>548.724319600695</v>
       </c>
       <c r="O6" t="n">
         <v>570.0333416264414</v>
@@ -4668,28 +4670,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R6" t="n">
-        <v>822.0713777531216</v>
+        <v>814.3015730003187</v>
       </c>
       <c r="S6" t="n">
-        <v>822.0713777531216</v>
+        <v>814.3015730003187</v>
       </c>
       <c r="T6" t="n">
-        <v>822.0713777531216</v>
+        <v>814.3015730003187</v>
       </c>
       <c r="U6" t="n">
-        <v>822.0713777531216</v>
+        <v>814.3015730003187</v>
       </c>
       <c r="V6" t="n">
-        <v>751.8455461463799</v>
+        <v>814.3015730003187</v>
       </c>
       <c r="W6" t="n">
-        <v>751.8455461463799</v>
+        <v>814.3015730003187</v>
       </c>
       <c r="X6" t="n">
-        <v>751.8455461463799</v>
+        <v>814.3015730003187</v>
       </c>
       <c r="Y6" t="n">
-        <v>544.2517638854906</v>
+        <v>814.3015730003187</v>
       </c>
     </row>
     <row r="7">
@@ -4741,13 +4743,13 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P7" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Q7" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="R7" t="n">
-        <v>16.44142755506243</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="S7" t="n">
         <v>16.44142755506243</v>
@@ -4778,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>450.6444820731278</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="C8" t="n">
-        <v>450.6444820731278</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="D8" t="n">
-        <v>450.6444820731278</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="E8" t="n">
-        <v>243.0506998122385</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="F8" t="n">
-        <v>236.1051990630351</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="G8" t="n">
-        <v>28.51141680214578</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="H8" t="n">
-        <v>28.51141680214578</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="I8" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J8" t="n">
         <v>16.44142755506243</v>
@@ -4811,43 +4813,43 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M8" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N8" t="n">
-        <v>672.8764276104736</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O8" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P8" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q8" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R8" t="n">
-        <v>660.5968149695918</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S8" t="n">
-        <v>660.5968149695918</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T8" t="n">
-        <v>660.5968149695918</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U8" t="n">
-        <v>658.2382643340171</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V8" t="n">
-        <v>658.2382643340171</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W8" t="n">
-        <v>658.2382643340171</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X8" t="n">
-        <v>658.2382643340171</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y8" t="n">
-        <v>450.6444820731278</v>
+        <v>822.0713777531216</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>277.0992537733839</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C9" t="n">
-        <v>277.0992537733839</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D9" t="n">
-        <v>277.0992537733839</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E9" t="n">
-        <v>277.0992537733839</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F9" t="n">
-        <v>130.5646958002688</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G9" t="n">
-        <v>130.5646958002688</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H9" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I9" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J9" t="n">
         <v>16.44142755506243</v>
@@ -4905,28 +4907,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R9" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S9" t="n">
-        <v>686.8796306755071</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="T9" t="n">
-        <v>484.6930360342732</v>
+        <v>446.4674385625565</v>
       </c>
       <c r="U9" t="n">
-        <v>484.6930360342732</v>
+        <v>446.4674385625565</v>
       </c>
       <c r="V9" t="n">
-        <v>277.0992537733839</v>
+        <v>446.4674385625565</v>
       </c>
       <c r="W9" t="n">
-        <v>277.0992537733839</v>
+        <v>431.628992076841</v>
       </c>
       <c r="X9" t="n">
-        <v>277.0992537733839</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="Y9" t="n">
-        <v>277.0992537733839</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>110.7436296931158</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="C10" t="n">
-        <v>110.7436296931158</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="D10" t="n">
-        <v>110.7436296931158</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E10" t="n">
-        <v>110.7436296931158</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F10" t="n">
-        <v>110.7436296931158</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G10" t="n">
-        <v>110.7436296931158</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H10" t="n">
-        <v>110.7436296931158</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I10" t="n">
-        <v>110.7436296931158</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J10" t="n">
         <v>16.44142755506243</v>
@@ -4987,25 +4989,25 @@
         <v>150.9737180453332</v>
       </c>
       <c r="S10" t="n">
-        <v>110.7436296931158</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T10" t="n">
-        <v>110.7436296931158</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U10" t="n">
-        <v>110.7436296931158</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V10" t="n">
-        <v>110.7436296931158</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W10" t="n">
-        <v>110.7436296931158</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X10" t="n">
-        <v>110.7436296931158</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y10" t="n">
-        <v>110.7436296931158</v>
+        <v>150.9737180453332</v>
       </c>
     </row>
     <row r="11">
@@ -5015,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>16.44142755506243</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="C11" t="n">
-        <v>16.44142755506243</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="D11" t="n">
-        <v>16.44142755506243</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="E11" t="n">
-        <v>16.44142755506243</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="F11" t="n">
-        <v>16.44142755506243</v>
+        <v>651.2927635848137</v>
       </c>
       <c r="G11" t="n">
-        <v>16.44142755506243</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="H11" t="n">
-        <v>16.44142755506243</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="I11" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J11" t="n">
         <v>16.44142755506243</v>
@@ -5045,10 +5047,10 @@
         <v>119.4564334659848</v>
       </c>
       <c r="L11" t="n">
-        <v>299.5322850506434</v>
+        <v>176.2910403306274</v>
       </c>
       <c r="M11" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N11" t="n">
         <v>583.2163723184226</v>
@@ -5063,28 +5065,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R11" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="S11" t="n">
-        <v>614.4775954922324</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="T11" t="n">
-        <v>614.4775954922324</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="U11" t="n">
-        <v>431.628992076841</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="V11" t="n">
-        <v>431.628992076841</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="W11" t="n">
-        <v>224.0352098159517</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="X11" t="n">
-        <v>224.0352098159517</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="Y11" t="n">
-        <v>16.44142755506243</v>
+        <v>670.6884303378189</v>
       </c>
     </row>
     <row r="12">
@@ -5094,16 +5096,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>233.4664686820119</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C12" t="n">
-        <v>59.01343940088492</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D12" t="n">
-        <v>59.01343940088492</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E12" t="n">
-        <v>59.01343940088492</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F12" t="n">
         <v>16.44142755506243</v>
@@ -5130,13 +5132,13 @@
         <v>548.724319600695</v>
       </c>
       <c r="N12" t="n">
-        <v>548.724319600695</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="O12" t="n">
-        <v>639.4279001397708</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P12" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q12" t="n">
         <v>822.0713777531216</v>
@@ -5145,25 +5147,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S12" t="n">
-        <v>648.6540332037905</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T12" t="n">
-        <v>648.6540332037905</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U12" t="n">
-        <v>441.0602509429012</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="V12" t="n">
-        <v>441.0602509429012</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="W12" t="n">
-        <v>441.0602509429012</v>
+        <v>431.628992076841</v>
       </c>
       <c r="X12" t="n">
-        <v>441.0602509429012</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="Y12" t="n">
-        <v>233.4664686820119</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="13">
@@ -5194,10 +5196,10 @@
         <v>150.9737180453332</v>
       </c>
       <c r="I13" t="n">
-        <v>16.44142755506243</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="J13" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="K13" t="n">
         <v>16.44142755506243</v>
@@ -5252,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>396.792197863116</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="C14" t="n">
-        <v>396.792197863116</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="D14" t="n">
-        <v>224.0352098159517</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="E14" t="n">
-        <v>224.0352098159517</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="F14" t="n">
-        <v>224.0352098159517</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="G14" t="n">
-        <v>224.0352098159517</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="H14" t="n">
-        <v>224.0352098159517</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="I14" t="n">
         <v>16.44142755506243</v>
@@ -5279,10 +5281,10 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K14" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L14" t="n">
-        <v>299.5322850506434</v>
+        <v>176.2910403306274</v>
       </c>
       <c r="M14" t="n">
         <v>379.753706324525</v>
@@ -5297,31 +5299,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q14" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R14" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S14" t="n">
-        <v>604.3859801240053</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T14" t="n">
-        <v>604.3859801240053</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U14" t="n">
-        <v>604.3859801240053</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V14" t="n">
-        <v>604.3859801240053</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W14" t="n">
-        <v>396.792197863116</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X14" t="n">
-        <v>396.792197863116</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y14" t="n">
-        <v>396.792197863116</v>
+        <v>822.0713777531216</v>
       </c>
     </row>
     <row r="15">
@@ -5331,25 +5333,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>204.697218590109</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="C15" t="n">
-        <v>204.697218590109</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="D15" t="n">
-        <v>204.697218590109</v>
+        <v>575.067534196224</v>
       </c>
       <c r="E15" t="n">
-        <v>204.697218590109</v>
+        <v>415.8300791907684</v>
       </c>
       <c r="F15" t="n">
-        <v>107.4951893506917</v>
+        <v>269.2955212176533</v>
       </c>
       <c r="G15" t="n">
-        <v>107.4951893506917</v>
+        <v>130.5646958002688</v>
       </c>
       <c r="H15" t="n">
-        <v>107.4951893506917</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="I15" t="n">
         <v>17.19556020784815</v>
@@ -5361,13 +5363,13 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L15" t="n">
-        <v>232.5025681519757</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M15" t="n">
-        <v>435.9652341458732</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N15" t="n">
-        <v>435.9652341458732</v>
+        <v>548.724319600695</v>
       </c>
       <c r="O15" t="n">
         <v>639.4279001397708</v>
@@ -5382,25 +5384,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S15" t="n">
-        <v>822.0713777531216</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="T15" t="n">
-        <v>619.8847831118876</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="U15" t="n">
-        <v>412.2910008509983</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="V15" t="n">
-        <v>412.2910008509983</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="W15" t="n">
-        <v>412.2910008509983</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="X15" t="n">
-        <v>204.697218590109</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="Y15" t="n">
-        <v>204.697218590109</v>
+        <v>648.6540332037905</v>
       </c>
     </row>
     <row r="16">
@@ -5455,13 +5457,13 @@
         <v>148.224788009872</v>
       </c>
       <c r="Q16" t="n">
-        <v>148.224788009872</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="R16" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="S16" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="T16" t="n">
         <v>16.44142755506243</v>
@@ -5489,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="C17" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="D17" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="E17" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="F17" t="n">
         <v>720.6083788665362</v>
       </c>
-      <c r="C17" t="n">
-        <v>720.6083788665362</v>
-      </c>
-      <c r="D17" t="n">
-        <v>720.6083788665362</v>
-      </c>
-      <c r="E17" t="n">
-        <v>720.6083788665362</v>
-      </c>
-      <c r="F17" t="n">
-        <v>487.4018176583718</v>
-      </c>
       <c r="G17" t="n">
-        <v>487.4018176583718</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="H17" t="n">
-        <v>243.9530410142718</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="I17" t="n">
         <v>31.35113235729608</v>
@@ -5555,10 +5557,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="X17" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y17" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="18">
@@ -5568,28 +5570,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>352.9716273967953</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C18" t="n">
-        <v>178.5185981156682</v>
+        <v>789.6041262295092</v>
       </c>
       <c r="D18" t="n">
-        <v>178.5185981156682</v>
+        <v>640.669716568258</v>
       </c>
       <c r="E18" t="n">
-        <v>19.28114311021272</v>
+        <v>481.4322615628025</v>
       </c>
       <c r="F18" t="n">
-        <v>19.28114311021272</v>
+        <v>334.8977035896875</v>
       </c>
       <c r="G18" t="n">
-        <v>19.28114311021272</v>
+        <v>196.166878172303</v>
       </c>
       <c r="H18" t="n">
-        <v>19.28114311021272</v>
+        <v>82.7977425798823</v>
       </c>
       <c r="I18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
@@ -5598,46 +5600,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>234.810827406191</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N18" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O18" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P18" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T18" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U18" t="n">
-        <v>634.6640077999109</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V18" t="n">
-        <v>521.1869644168632</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W18" t="n">
-        <v>521.1869644168632</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X18" t="n">
-        <v>521.1869644168632</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y18" t="n">
-        <v>521.1869644168632</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="19">
@@ -5647,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C19" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D19" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E19" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F19" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G19" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H19" t="n">
         <v>19.28114311021272</v>
@@ -5689,34 +5691,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P19" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q19" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U19" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V19" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W19" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X19" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y19" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>718.7806050553886</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C20" t="n">
-        <v>718.7806050553886</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D20" t="n">
-        <v>718.7806050553886</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E20" t="n">
-        <v>718.7806050553886</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F20" t="n">
-        <v>475.3318284112885</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G20" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H20" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I20" t="n">
         <v>19.28114311021272</v>
@@ -5774,28 +5776,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>929.9119884758385</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S20" t="n">
-        <v>718.7806050553886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T20" t="n">
-        <v>718.7806050553886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U20" t="n">
-        <v>718.7806050553886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V20" t="n">
-        <v>718.7806050553886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W20" t="n">
-        <v>718.7806050553886</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X20" t="n">
-        <v>718.7806050553886</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y20" t="n">
-        <v>718.7806050553886</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="21">
@@ -5805,28 +5807,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>502.6601697108322</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C21" t="n">
-        <v>328.2071404297052</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D21" t="n">
-        <v>179.2727307684539</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
@@ -5835,13 +5837,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>383.2428491569326</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N21" t="n">
-        <v>621.8469951458151</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O21" t="n">
         <v>781.4136778972854</v>
@@ -5859,22 +5861,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>878.6358054958541</v>
+        <v>813.1585848204618</v>
       </c>
       <c r="U21" t="n">
-        <v>878.6358054958541</v>
+        <v>813.1585848204618</v>
       </c>
       <c r="V21" t="n">
-        <v>878.6358054958541</v>
+        <v>813.1585848204618</v>
       </c>
       <c r="W21" t="n">
-        <v>878.6358054958541</v>
+        <v>569.7098081763618</v>
       </c>
       <c r="X21" t="n">
-        <v>878.6358054958541</v>
+        <v>569.7098081763618</v>
       </c>
       <c r="Y21" t="n">
-        <v>670.8755067309003</v>
+        <v>361.9495094114078</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L22" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M22" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N22" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W22" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X22" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y22" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>262.7299197543128</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="C23" t="n">
-        <v>262.7299197543128</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="D23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H23" t="n">
         <v>19.28114311021272</v>
@@ -6020,19 +6022,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U23" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="V23" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="W23" t="n">
         <v>720.6083788665362</v>
       </c>
-      <c r="V23" t="n">
-        <v>720.6083788665362</v>
-      </c>
-      <c r="W23" t="n">
-        <v>506.1786963984129</v>
-      </c>
       <c r="X23" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y23" t="n">
-        <v>262.7299197543128</v>
+        <v>233.7108255783361</v>
       </c>
     </row>
     <row r="24">
@@ -6042,22 +6044,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>342.668582052591</v>
+        <v>900.5405560409666</v>
       </c>
       <c r="C24" t="n">
-        <v>168.215552771464</v>
+        <v>726.0875267598396</v>
       </c>
       <c r="D24" t="n">
-        <v>19.28114311021272</v>
+        <v>577.1531170985884</v>
       </c>
       <c r="E24" t="n">
-        <v>19.28114311021272</v>
+        <v>417.9156620931329</v>
       </c>
       <c r="F24" t="n">
-        <v>19.28114311021272</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="G24" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H24" t="n">
         <v>19.28114311021272</v>
@@ -6069,10 +6071,10 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
         <v>473.4149733950735</v>
@@ -6090,28 +6092,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>956.519290357993</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>956.519290357993</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>754.3326957167591</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U24" t="n">
-        <v>754.3326957167591</v>
+        <v>900.5405560409666</v>
       </c>
       <c r="V24" t="n">
-        <v>754.3326957167591</v>
+        <v>900.5405560409666</v>
       </c>
       <c r="W24" t="n">
-        <v>510.883919072659</v>
+        <v>900.5405560409666</v>
       </c>
       <c r="X24" t="n">
-        <v>510.883919072659</v>
+        <v>900.5405560409666</v>
       </c>
       <c r="Y24" t="n">
-        <v>510.883919072659</v>
+        <v>900.5405560409666</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L25" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M25" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N25" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>964.0571555106362</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R25" t="n">
-        <v>964.0571555106362</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S25" t="n">
-        <v>964.0571555106362</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="T25" t="n">
-        <v>964.0571555106362</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="U25" t="n">
-        <v>964.0571555106362</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="V25" t="n">
-        <v>964.0571555106362</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="W25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C26" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D26" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E26" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F26" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G26" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H26" t="n">
         <v>19.28114311021272</v>
@@ -6254,22 +6256,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T26" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U26" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V26" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W26" t="n">
-        <v>749.627473042513</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X26" t="n">
-        <v>749.627473042513</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y26" t="n">
-        <v>506.1786963984129</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="27">
@@ -6279,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>248.3115976704407</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C27" t="n">
-        <v>248.3115976704407</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D27" t="n">
-        <v>248.3115976704407</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E27" t="n">
-        <v>248.3115976704407</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F27" t="n">
-        <v>248.3115976704407</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G27" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H27" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I27" t="n">
         <v>19.28114311021272</v>
@@ -6312,16 +6314,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N27" t="n">
-        <v>725.4530095217538</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O27" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P27" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
@@ -6339,16 +6341,16 @@
         <v>761.8705608694022</v>
       </c>
       <c r="V27" t="n">
-        <v>526.7184526376595</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="W27" t="n">
-        <v>456.0718964353946</v>
+        <v>518.4217842253022</v>
       </c>
       <c r="X27" t="n">
-        <v>456.0718964353946</v>
+        <v>310.5702840197694</v>
       </c>
       <c r="Y27" t="n">
-        <v>248.3115976704407</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L28" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M28" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N28" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="C29" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J29" t="n">
         <v>19.28114311021272</v>
@@ -6482,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S29" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T29" t="n">
-        <v>964.0571555106362</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="U29" t="n">
-        <v>749.627473042513</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="V29" t="n">
-        <v>506.1786963984129</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="W29" t="n">
-        <v>506.1786963984129</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="X29" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="Y29" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
     </row>
     <row r="30">
@@ -6516,19 +6518,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>466.183833194304</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C30" t="n">
-        <v>466.183833194304</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D30" t="n">
-        <v>317.2494235330527</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E30" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F30" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G30" t="n">
         <v>19.28114311021272</v>
@@ -6546,46 +6548,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>374.6018090363993</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M30" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N30" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O30" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P30" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S30" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T30" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U30" t="n">
-        <v>735.8335372470253</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V30" t="n">
-        <v>735.8335372470253</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W30" t="n">
-        <v>735.8335372470253</v>
+        <v>395.3479803358136</v>
       </c>
       <c r="X30" t="n">
-        <v>735.8335372470253</v>
+        <v>187.4964801302808</v>
       </c>
       <c r="Y30" t="n">
-        <v>634.399170214372</v>
+        <v>187.4964801302808</v>
       </c>
     </row>
     <row r="31">
@@ -6674,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>22.57944215788615</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C32" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H32" t="n">
         <v>19.28114311021272</v>
@@ -6725,25 +6727,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T32" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U32" t="n">
-        <v>509.4769954460863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V32" t="n">
-        <v>509.4769954460863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W32" t="n">
-        <v>266.0282188019862</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X32" t="n">
-        <v>266.0282188019862</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y32" t="n">
-        <v>22.57944215788615</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="33">
@@ -6753,28 +6755,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>279.1848366757484</v>
+        <v>318.0035561858384</v>
       </c>
       <c r="C33" t="n">
-        <v>279.1848366757484</v>
+        <v>318.0035561858384</v>
       </c>
       <c r="D33" t="n">
-        <v>279.1848366757484</v>
+        <v>318.0035561858384</v>
       </c>
       <c r="E33" t="n">
-        <v>279.1848366757484</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="F33" t="n">
-        <v>132.6502787026334</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="G33" t="n">
-        <v>132.6502787026334</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
@@ -6801,28 +6803,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S33" t="n">
-        <v>919.0725686035275</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T33" t="n">
-        <v>919.0725686035275</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U33" t="n">
-        <v>690.8489503399165</v>
+        <v>318.0035561858384</v>
       </c>
       <c r="V33" t="n">
-        <v>690.8489503399165</v>
+        <v>318.0035561858384</v>
       </c>
       <c r="W33" t="n">
-        <v>447.4001736958165</v>
+        <v>318.0035561858384</v>
       </c>
       <c r="X33" t="n">
-        <v>447.4001736958165</v>
+        <v>318.0035561858384</v>
       </c>
       <c r="Y33" t="n">
-        <v>447.4001736958165</v>
+        <v>318.0035561858384</v>
       </c>
     </row>
     <row r="34">
@@ -6838,10 +6840,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="D34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F34" t="n">
         <v>19.28114311021272</v>
@@ -6911,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C35" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D35" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E35" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H35" t="n">
         <v>19.28114311021272</v>
@@ -6956,19 +6958,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R35" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S35" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T35" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U35" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V35" t="n">
         <v>749.627473042513</v>
@@ -6980,7 +6982,7 @@
         <v>749.627473042513</v>
       </c>
       <c r="Y35" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="36">
@@ -6990,28 +6992,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>352.9294114938717</v>
+        <v>414.6641751762832</v>
       </c>
       <c r="C36" t="n">
-        <v>281.5846883638847</v>
+        <v>414.6641751762832</v>
       </c>
       <c r="D36" t="n">
-        <v>132.6502787026334</v>
+        <v>265.7297655150319</v>
       </c>
       <c r="E36" t="n">
-        <v>132.6502787026334</v>
+        <v>265.7297655150319</v>
       </c>
       <c r="F36" t="n">
-        <v>132.6502787026334</v>
+        <v>265.7297655150319</v>
       </c>
       <c r="G36" t="n">
-        <v>132.6502787026334</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
@@ -7020,19 +7022,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>234.810827406191</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M36" t="n">
-        <v>234.810827406191</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N36" t="n">
-        <v>473.4149733950735</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O36" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P36" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
@@ -7041,25 +7043,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T36" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U36" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V36" t="n">
-        <v>728.9050472788936</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W36" t="n">
-        <v>728.9050472788936</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="X36" t="n">
-        <v>728.9050472788936</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="Y36" t="n">
-        <v>521.1447485139397</v>
+        <v>582.8795121963512</v>
       </c>
     </row>
     <row r="37">
@@ -7114,16 +7116,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q37" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
         <v>19.28114311021272</v>
@@ -7148,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>506.1786963984129</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="C38" t="n">
-        <v>506.1786963984129</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D38" t="n">
-        <v>506.1786963984129</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E38" t="n">
-        <v>506.1786963984129</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F38" t="n">
-        <v>506.1786963984129</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G38" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J38" t="n">
         <v>19.28114311021272</v>
@@ -7193,31 +7195,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R38" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S38" t="n">
-        <v>964.0571555106362</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="T38" t="n">
-        <v>964.0571555106362</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="U38" t="n">
-        <v>964.0571555106362</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="V38" t="n">
-        <v>749.627473042513</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="W38" t="n">
-        <v>506.1786963984129</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="X38" t="n">
-        <v>506.1786963984129</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="Y38" t="n">
-        <v>506.1786963984129</v>
+        <v>274.7999090013961</v>
       </c>
     </row>
     <row r="39">
@@ -7227,13 +7229,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>352.9716273967953</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C39" t="n">
-        <v>178.5185981156682</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D39" t="n">
-        <v>178.5185981156682</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E39" t="n">
         <v>19.28114311021272</v>
@@ -7257,19 +7259,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M39" t="n">
-        <v>542.809531908403</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N39" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O39" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P39" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
@@ -7281,22 +7283,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U39" t="n">
-        <v>761.8705608694022</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="V39" t="n">
-        <v>526.7184526376595</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W39" t="n">
-        <v>526.7184526376595</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X39" t="n">
-        <v>352.9716273967953</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y39" t="n">
-        <v>352.9716273967953</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="40">
@@ -7324,7 +7326,7 @@
         <v>964.0571555106362</v>
       </c>
       <c r="H40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I40" t="n">
         <v>829.5248650203655</v>
@@ -7412,46 +7414,46 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K41" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L41" t="n">
-        <v>176.2910403306274</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M41" t="n">
-        <v>379.753706324525</v>
+        <v>399.9799451336186</v>
       </c>
       <c r="N41" t="n">
-        <v>583.2163723184226</v>
+        <v>603.4426111275161</v>
       </c>
       <c r="O41" t="n">
-        <v>732.4113224610707</v>
+        <v>752.6375612701642</v>
       </c>
       <c r="P41" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q41" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R41" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S41" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="T41" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="U41" t="n">
-        <v>639.2227743377304</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="V41" t="n">
-        <v>431.628992076841</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="W41" t="n">
-        <v>431.628992076841</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X41" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y41" t="n">
         <v>16.44142755506243</v>
@@ -7464,16 +7466,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>339.8288664974407</v>
+        <v>518.7152536647734</v>
       </c>
       <c r="C42" t="n">
-        <v>165.3758372163137</v>
+        <v>344.2622243836464</v>
       </c>
       <c r="D42" t="n">
-        <v>16.44142755506243</v>
+        <v>322.2134405336329</v>
       </c>
       <c r="E42" t="n">
-        <v>16.44142755506243</v>
+        <v>162.9759855281775</v>
       </c>
       <c r="F42" t="n">
         <v>16.44142755506243</v>
@@ -7491,49 +7493,49 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K42" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L42" t="n">
-        <v>345.2616536067974</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M42" t="n">
-        <v>345.2616536067974</v>
+        <v>345.7514872519972</v>
       </c>
       <c r="N42" t="n">
-        <v>435.9652341458732</v>
+        <v>549.2141532458947</v>
       </c>
       <c r="O42" t="n">
-        <v>639.4279001397708</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="P42" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q42" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R42" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S42" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="T42" t="n">
-        <v>822.0713777531216</v>
+        <v>518.7152536647734</v>
       </c>
       <c r="U42" t="n">
-        <v>715.637985778398</v>
+        <v>518.7152536647734</v>
       </c>
       <c r="V42" t="n">
-        <v>715.637985778398</v>
+        <v>518.7152536647734</v>
       </c>
       <c r="W42" t="n">
-        <v>715.637985778398</v>
+        <v>518.7152536647734</v>
       </c>
       <c r="X42" t="n">
-        <v>715.637985778398</v>
+        <v>518.7152536647734</v>
       </c>
       <c r="Y42" t="n">
-        <v>508.0442035175087</v>
+        <v>518.7152536647734</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="C43" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="D43" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="E43" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="F43" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="G43" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="H43" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="I43" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="J43" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="K43" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="L43" t="n">
-        <v>43.75555256277541</v>
+        <v>714.8532122705639</v>
       </c>
       <c r="M43" t="n">
-        <v>82.94359075499759</v>
+        <v>754.041250462786</v>
       </c>
       <c r="N43" t="n">
-        <v>126.6344414104339</v>
+        <v>797.7321011182223</v>
       </c>
       <c r="O43" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P43" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q43" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R43" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S43" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T43" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U43" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V43" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W43" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X43" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y43" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
     </row>
     <row r="44">
@@ -7622,46 +7624,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>224.0352098159517</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="C44" t="n">
-        <v>224.0352098159517</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="D44" t="n">
-        <v>224.0352098159517</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="E44" t="n">
-        <v>224.0352098159517</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="F44" t="n">
-        <v>16.44142755506243</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="G44" t="n">
-        <v>16.44142755506243</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="H44" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="I44" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J44" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K44" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L44" t="n">
-        <v>299.5322850506434</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M44" t="n">
-        <v>502.994951044541</v>
+        <v>399.9799451336186</v>
       </c>
       <c r="N44" t="n">
-        <v>583.2163723184226</v>
+        <v>603.4426111275161</v>
       </c>
       <c r="O44" t="n">
-        <v>732.4113224610707</v>
+        <v>752.6375612701642</v>
       </c>
       <c r="P44" t="n">
         <v>822.0713777531216</v>
@@ -7673,25 +7675,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S44" t="n">
-        <v>639.2227743377304</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T44" t="n">
-        <v>639.2227743377304</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U44" t="n">
-        <v>639.2227743377304</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V44" t="n">
-        <v>639.2227743377304</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W44" t="n">
-        <v>431.628992076841</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="X44" t="n">
-        <v>224.0352098159517</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="Y44" t="n">
-        <v>224.0352098159517</v>
+        <v>406.8838132313431</v>
       </c>
     </row>
     <row r="45">
@@ -7701,22 +7703,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>199.2900309704538</v>
+        <v>339.8288664974407</v>
       </c>
       <c r="C45" t="n">
-        <v>199.2900309704538</v>
+        <v>165.3758372163137</v>
       </c>
       <c r="D45" t="n">
-        <v>129.8105631474831</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E45" t="n">
-        <v>129.8105631474831</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F45" t="n">
-        <v>129.8105631474831</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G45" t="n">
-        <v>129.8105631474831</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H45" t="n">
         <v>16.44142755506243</v>
@@ -7728,16 +7730,16 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K45" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L45" t="n">
-        <v>141.7989876128999</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M45" t="n">
-        <v>345.2616536067974</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="N45" t="n">
-        <v>435.9652341458732</v>
+        <v>626.8294255367553</v>
       </c>
       <c r="O45" t="n">
         <v>639.4279001397708</v>
@@ -7752,25 +7754,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S45" t="n">
-        <v>822.0713777531216</v>
+        <v>715.637985778398</v>
       </c>
       <c r="T45" t="n">
-        <v>822.0713777531216</v>
+        <v>715.637985778398</v>
       </c>
       <c r="U45" t="n">
-        <v>822.0713777531216</v>
+        <v>508.0442035175087</v>
       </c>
       <c r="V45" t="n">
-        <v>822.0713777531216</v>
+        <v>508.0442035175087</v>
       </c>
       <c r="W45" t="n">
-        <v>614.4775954922324</v>
+        <v>508.0442035175087</v>
       </c>
       <c r="X45" t="n">
-        <v>406.8838132313431</v>
+        <v>508.0442035175087</v>
       </c>
       <c r="Y45" t="n">
-        <v>199.2900309704538</v>
+        <v>508.0442035175087</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="C46" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="D46" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="E46" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="F46" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="G46" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="H46" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="I46" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="J46" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="K46" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="L46" t="n">
-        <v>43.75555256277541</v>
+        <v>714.8532122705639</v>
       </c>
       <c r="M46" t="n">
-        <v>82.94359075499759</v>
+        <v>754.041250462786</v>
       </c>
       <c r="N46" t="n">
-        <v>126.6344414104339</v>
+        <v>797.7321011182223</v>
       </c>
       <c r="O46" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P46" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q46" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R46" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S46" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T46" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U46" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V46" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W46" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X46" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y46" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
     </row>
   </sheetData>
@@ -7985,16 +7987,16 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
-        <v>311.3779718877592</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N2" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O2" t="n">
-        <v>380.8001812627454</v>
+        <v>346.8797879011645</v>
       </c>
       <c r="P2" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8061,7 +8063,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7024424905649</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
         <v>347.6518783602987</v>
@@ -8070,10 +8072,10 @@
         <v>336.8595565216137</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>261.0929869123474</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8216,10 +8218,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>397.2306702988408</v>
+        <v>293.1751087726566</v>
       </c>
       <c r="M5" t="n">
         <v>435.8640776655532</v>
@@ -8301,13 +8303,13 @@
         <v>344.0722242181546</v>
       </c>
       <c r="M6" t="n">
-        <v>142.1340339220183</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N6" t="n">
-        <v>152.8659767558044</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
-        <v>348.1140888827248</v>
+        <v>164.1205091169155</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8459,16 +8461,16 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>435.8640776655532</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N8" t="n">
-        <v>401.0105146732905</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O8" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8693,13 +8695,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>293.1751087726566</v>
       </c>
       <c r="M11" t="n">
         <v>435.8640776655532</v>
       </c>
       <c r="N11" t="n">
-        <v>310.4448022570774</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O11" t="n">
         <v>380.8001812627454</v>
@@ -8778,16 +8780,16 @@
         <v>347.6518783602987</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>152.8659767558044</v>
       </c>
       <c r="O12" t="n">
-        <v>234.2160227667432</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8927,13 +8929,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>397.2306702988408</v>
       </c>
       <c r="M14" t="n">
-        <v>311.3779718877592</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N14" t="n">
         <v>434.9309080348713</v>
@@ -9009,7 +9011,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>230.174158102173</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M15" t="n">
         <v>347.6518783602987</v>
@@ -9018,7 +9020,7 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>348.1140888827248</v>
+        <v>234.2160227667432</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9164,10 +9166,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
         <v>449.5135334928325</v>
@@ -9246,7 +9248,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>229.6373335557741</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>383.1483227996774</v>
@@ -9255,13 +9257,13 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9483,16 +9485,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O21" t="n">
-        <v>303.774711870172</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
@@ -9717,13 +9719,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>368.5691090902119</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N24" t="n">
         <v>131.3417120833333</v>
@@ -9960,19 +9962,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N27" t="n">
-        <v>244.7225752110828</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10194,10 +10196,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M30" t="n">
-        <v>241.9453110519923</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
         <v>131.3417120833333</v>
@@ -10209,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10668,22 +10670,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>229.6373335557741</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>383.6105333221035</v>
+        <v>303.774711870172</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10823,7 +10825,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10905,13 +10907,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>312.04082470182</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
@@ -10920,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11060,10 +11062,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L41" t="n">
-        <v>293.1751087726566</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
         <v>435.8640776655532</v>
@@ -11075,7 +11077,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>301.368163919873</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11139,25 +11141,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
         <v>344.0722242181546</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>269.2526134200356</v>
       </c>
       <c r="N42" t="n">
-        <v>222.9614904056321</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O42" t="n">
         <v>348.1140888827248</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11297,7 +11299,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11306,13 +11308,13 @@
         <v>435.8640776655532</v>
       </c>
       <c r="N44" t="n">
-        <v>310.4448022570774</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>301.368163919873</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11376,19 +11378,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M45" t="n">
         <v>347.6518783602987</v>
       </c>
       <c r="N45" t="n">
-        <v>222.9614904056321</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O45" t="n">
-        <v>348.1140888827248</v>
+        <v>155.3219763666824</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
@@ -23267,19 +23269,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>387.6743356562363</v>
       </c>
       <c r="G11" t="n">
-        <v>415.302737515135</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H11" t="n">
-        <v>339.4748021157671</v>
+        <v>133.9569576774867</v>
       </c>
       <c r="I11" t="n">
-        <v>210.4758895704059</v>
+        <v>4.958045132125505</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23303,28 +23305,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>3.502225147964936</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>70.32553552659908</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23337,7 +23339,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
@@ -23346,7 +23348,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>102.9229206660196</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
         <v>137.3435171632106</v>
@@ -23385,22 +23387,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>20.42353764269441</v>
+        <v>44.92126469973746</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y12" t="n">
         <v>0.1648513390239543</v>
@@ -23434,13 +23436,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>22.26350734189029</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23498,22 +23500,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>183.6536234539903</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G14" t="n">
-        <v>415.302737515135</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H14" t="n">
-        <v>339.4748021157671</v>
+        <v>133.9569576774867</v>
       </c>
       <c r="I14" t="n">
-        <v>4.958045132125505</v>
+        <v>29.45577218916847</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -23537,13 +23539,13 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>3.502225147964936</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
         <v>223.0958495641314</v>
@@ -23555,7 +23557,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -23577,22 +23579,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>74.59443154714788</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>48.83920344636068</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23622,13 +23624,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -23637,7 +23639,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -23695,16 +23697,16 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>177.2933913771695</v>
+        <v>132.9899077786024</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T16" t="n">
-        <v>97.48006257801998</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U16" t="n">
         <v>286.3190293564909</v>
@@ -23741,16 +23743,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>176.0015501456287</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G17" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
         <v>98.46051323810809</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>10.13979328157632</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23795,7 +23797,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -23808,31 +23810,31 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>27.26179070270006</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23856,7 +23858,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
         <v>171.6831711038378</v>
@@ -23865,10 +23867,10 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>120.4583142002081</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
         <v>251.6949831609196</v>
@@ -23905,7 +23907,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H19" t="n">
-        <v>117.9236889088724</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I19" t="n">
         <v>155.4504749272583</v>
@@ -23929,10 +23931,10 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
         <v>177.2933913771695</v>
@@ -23941,7 +23943,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U19" t="n">
         <v>286.3190293564909</v>
@@ -23978,16 +23980,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H20" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
         <v>11.94928935461252</v>
@@ -24014,10 +24016,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>116.0654025766999</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
         <v>223.0958495641314</v>
@@ -24029,13 +24031,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>136.955583073971</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="21">
@@ -24051,10 +24053,10 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
@@ -24069,7 +24071,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24099,7 +24101,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>115.5975921801873</v>
+        <v>50.77514371154891</v>
       </c>
       <c r="U21" t="n">
         <v>225.9413820809748</v>
@@ -24108,7 +24110,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
@@ -24127,7 +24129,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>34.05985351325981</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24187,7 +24189,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24209,7 +24211,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>142.3976559772408</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -24221,7 +24223,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
         <v>210.4758895704059</v>
@@ -24260,19 +24262,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>136.9555830739709</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X23" t="n">
         <v>128.71681180081</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="24">
@@ -24282,7 +24284,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -24291,16 +24293,16 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>89.39663285141508</v>
@@ -24330,22 +24332,22 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>92.69534765152633</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>163.0599486060019</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
@@ -24364,7 +24366,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>34.05985351325984</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24406,7 +24408,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>177.2933913771695</v>
@@ -24424,7 +24426,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>239.4980740029173</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24440,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>170.4484560200385</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -24458,7 +24460,7 @@
         <v>174.288448637476</v>
       </c>
       <c r="H26" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
         <v>210.4758895704059</v>
@@ -24494,7 +24496,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>10.81046392068936</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
         <v>251.3456529078365</v>
@@ -24503,13 +24505,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y26" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24522,7 +24524,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
@@ -24534,13 +24536,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
         <v>0.7465913262578567</v>
@@ -24579,16 +24581,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>181.7548925206774</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>90.01494526515904</v>
       </c>
     </row>
     <row r="28">
@@ -24610,7 +24612,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756325</v>
       </c>
       <c r="G28" t="n">
         <v>167.9909793584588</v>
@@ -24649,7 +24651,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S28" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T28" t="n">
         <v>227.9455894282815</v>
@@ -24680,10 +24682,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D29" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -24701,7 +24703,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24722,19 +24724,19 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>150.6253511395826</v>
       </c>
       <c r="U29" t="n">
-        <v>39.0602672643945</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
         <v>86.73796959247585</v>
@@ -24743,7 +24745,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24762,16 +24764,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
         <v>112.2354442364965</v>
@@ -24804,7 +24806,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>171.6831711038378</v>
@@ -24816,16 +24818,16 @@
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>247.5727031208885</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>105.2626724149776</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24914,13 +24916,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C32" t="n">
-        <v>362.0075757138109</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -24932,7 +24934,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I32" t="n">
         <v>210.4758895704059</v>
@@ -24965,25 +24967,25 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>145.2236497783945</v>
+        <v>173.9525530126116</v>
       </c>
     </row>
     <row r="33">
@@ -24993,7 +24995,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
@@ -25002,22 +25004,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25041,22 +25043,22 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>127.1484300658002</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>58.35405270072761</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
@@ -25078,13 +25080,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>15.42850543284433</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>12.23408043756322</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>167.9909793584588</v>
@@ -25151,25 +25153,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E35" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H35" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I35" t="n">
         <v>210.4758895704059</v>
@@ -25196,13 +25198,13 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>156.5945010984978</v>
       </c>
       <c r="T35" t="n">
         <v>223.0958495641314</v>
@@ -25211,7 +25213,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
-        <v>115.4668728266929</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -25220,7 +25222,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="36">
@@ -25233,7 +25235,7 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>102.0772230896286</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -25245,7 +25247,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>6.341416545193937</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -25254,7 +25256,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25281,7 +25283,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>200.1647286948216</v>
@@ -25290,7 +25292,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
@@ -25354,19 +25356,19 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S37" t="n">
-        <v>176.9916737032986</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T37" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U37" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25388,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -25403,16 +25405,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H38" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25433,13 +25435,13 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>168.5437904531102</v>
       </c>
       <c r="T38" t="n">
         <v>223.0958495641314</v>
@@ -25448,7 +25450,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
-        <v>115.4668728266929</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>108.226679839754</v>
@@ -25457,7 +25459,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="39">
@@ -25470,13 +25472,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
@@ -25521,22 +25523,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>175.8836868124218</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
-        <v>33.76362821502187</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25564,10 +25566,10 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H40" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207158</v>
       </c>
       <c r="I40" t="n">
-        <v>22.26350734189029</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J40" t="n">
         <v>93.35918011667277</v>
@@ -25670,31 +25672,31 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T41" t="n">
-        <v>223.0958495641314</v>
+        <v>201.9355493385884</v>
       </c>
       <c r="U41" t="n">
-        <v>70.32553552659914</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V41" t="n">
-        <v>122.2344140318545</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>143.7231242791326</v>
       </c>
       <c r="X41" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25704,19 +25706,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>125.6167695531254</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>137.3435171632106</v>
@@ -25752,16 +25754,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>120.5723240259985</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -25773,7 +25775,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25786,7 +25788,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325984</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25831,7 +25833,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
-        <v>44.10642379180149</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S43" t="n">
         <v>224.0165980369723</v>
@@ -25874,19 +25876,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>201.358201303431</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
-        <v>339.4748021157671</v>
+        <v>133.9569576774867</v>
       </c>
       <c r="I44" t="n">
-        <v>210.4758895704059</v>
+        <v>41.40506154378102</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25913,7 +25915,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>27.99995220500799</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
         <v>223.0958495641314</v>
@@ -25941,13 +25943,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>78.66039241989778</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
@@ -25959,7 +25961,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
         <v>89.39663285141508</v>
@@ -25992,25 +25994,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>66.31411304886149</v>
       </c>
       <c r="T45" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26023,7 +26025,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325984</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26074,7 +26076,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T46" t="n">
-        <v>94.7586218429135</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U46" t="n">
         <v>286.3190293564909</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>362893.5903873891</v>
+        <v>362893.5903873892</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>382229.0917671365</v>
+        <v>382229.0917671366</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>382229.0917671365</v>
+        <v>382229.0917671366</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>382229.0917671365</v>
+        <v>382229.0917671366</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>382229.0917671366</v>
+        <v>382229.0917671365</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>382229.0917671365</v>
+        <v>382229.0917671366</v>
       </c>
     </row>
     <row r="14">
@@ -26314,10 +26316,10 @@
         <v>513151.1061651771</v>
       </c>
       <c r="C2" t="n">
+        <v>513151.106165177</v>
+      </c>
+      <c r="D2" t="n">
         <v>513151.1061651771</v>
-      </c>
-      <c r="D2" t="n">
-        <v>513151.106165177</v>
       </c>
       <c r="E2" t="n">
         <v>197197.0522936645</v>
@@ -26326,16 +26328,16 @@
         <v>197197.0522936645</v>
       </c>
       <c r="G2" t="n">
-        <v>207700.8406641655</v>
+        <v>207700.8406641654</v>
       </c>
       <c r="H2" t="n">
-        <v>207700.8406641655</v>
+        <v>207700.8406641654</v>
       </c>
       <c r="I2" t="n">
         <v>207700.8406641654</v>
       </c>
       <c r="J2" t="n">
-        <v>207700.8406641655</v>
+        <v>207700.8406641654</v>
       </c>
       <c r="K2" t="n">
         <v>207700.8406641654</v>
@@ -26427,7 +26429,7 @@
         <v>8092.707817725995</v>
       </c>
       <c r="F4" t="n">
-        <v>8092.707817725994</v>
+        <v>8092.707817725995</v>
       </c>
       <c r="G4" t="n">
         <v>8547.111069342402</v>
@@ -26439,7 +26441,7 @@
         <v>8547.111069342402</v>
       </c>
       <c r="J4" t="n">
-        <v>8547.111069342403</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="K4" t="n">
         <v>8547.111069342402</v>
@@ -26448,16 +26450,16 @@
         <v>8547.111069342402</v>
       </c>
       <c r="M4" t="n">
-        <v>8547.111069342403</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="N4" t="n">
-        <v>8547.111069342403</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="O4" t="n">
         <v>8092.707817725995</v>
       </c>
       <c r="P4" t="n">
-        <v>8092.707817725994</v>
+        <v>8092.707817725995</v>
       </c>
     </row>
     <row r="5">
@@ -26519,13 +26521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>101523.6826764658</v>
+        <v>101523.6826764657</v>
       </c>
       <c r="C6" t="n">
-        <v>170397.4392581555</v>
+        <v>170397.4392581554</v>
       </c>
       <c r="D6" t="n">
-        <v>170397.4392581555</v>
+        <v>170397.4392581556</v>
       </c>
       <c r="E6" t="n">
         <v>176608.8595340911</v>
@@ -26534,16 +26536,16 @@
         <v>176608.8595340911</v>
       </c>
       <c r="G6" t="n">
-        <v>174771.0178568943</v>
+        <v>174771.0178568942</v>
       </c>
       <c r="H6" t="n">
-        <v>184500.0608310614</v>
+        <v>184500.0608310613</v>
       </c>
       <c r="I6" t="n">
         <v>184500.0608310613</v>
       </c>
       <c r="J6" t="n">
-        <v>130727.549940852</v>
+        <v>130727.5499408519</v>
       </c>
       <c r="K6" t="n">
         <v>184500.0608310613</v>
@@ -26552,10 +26554,10 @@
         <v>184500.0608310614</v>
       </c>
       <c r="M6" t="n">
-        <v>184500.0608310613</v>
+        <v>184500.0608310614</v>
       </c>
       <c r="N6" t="n">
-        <v>184500.0608310613</v>
+        <v>184500.0608310614</v>
       </c>
       <c r="O6" t="n">
         <v>176608.8595340911</v>
@@ -27376,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27385,7 +27387,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>233.0797351624156</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27397,7 +27399,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>4.958045132125505</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -27427,25 +27429,25 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>3.502225147964936</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>102.4950179979903</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>122.2344140318545</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="3">
@@ -27476,7 +27478,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27512,16 +27514,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>215.1744773939442</v>
       </c>
       <c r="W3" t="n">
         <v>46.1771387226392</v>
       </c>
       <c r="X3" t="n">
-        <v>98.75024259658129</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27552,7 +27554,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207158</v>
       </c>
       <c r="I4" t="n">
         <v>155.4504749272583</v>
@@ -27576,13 +27578,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>46.82786452690797</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -27613,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27622,10 +27624,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>176.4125256339814</v>
       </c>
       <c r="F5" t="n">
-        <v>201.358201303431</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27634,7 +27636,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>204.618326859998</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -27658,13 +27660,13 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>3.502225147964936</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
@@ -27676,13 +27678,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>227.3966045316627</v>
       </c>
     </row>
     <row r="6">
@@ -27695,19 +27697,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -27740,7 +27742,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>92.46572744736828</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
@@ -27752,7 +27754,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>163.277013858751</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -27761,7 +27763,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27813,16 +27815,16 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>44.10642379180149</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>224.0165980369723</v>
+        <v>179.7131144384051</v>
       </c>
       <c r="T7" t="n">
         <v>227.9455894282815</v>
@@ -27850,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27859,22 +27861,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>176.4125256339814</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G8" t="n">
-        <v>209.7848930768546</v>
+        <v>234.2826201338976</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>4.958045132125505</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27895,10 +27897,10 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
@@ -27907,7 +27909,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>249.0106877786175</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27919,7 +27921,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27941,19 +27943,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27977,10 +27979,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>138.0011756496426</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -27989,16 +27991,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>27.28274271114486</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>237.0049211400612</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="10">
@@ -28014,7 +28016,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>15.42850543284436</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28032,7 +28034,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
         <v>22.26949182588285</v>
@@ -28059,7 +28061,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>184.188810568277</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
         <v>227.9455894282815</v>
@@ -34705,16 +34707,16 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N2" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O2" t="n">
-        <v>150.7019698410586</v>
+        <v>116.7815764794778</v>
       </c>
       <c r="P2" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34781,7 +34783,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>148.1480627106907</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>205.5178444382804</v>
@@ -34790,10 +34792,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>127.1185794980172</v>
       </c>
       <c r="Q3" t="n">
         <v>70.09551364982758</v>
@@ -34936,10 +34938,10 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L5" t="n">
-        <v>161.4642553288535</v>
+        <v>57.40869380266933</v>
       </c>
       <c r="M5" t="n">
         <v>205.5178444382804</v>
@@ -35021,13 +35023,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
         <v>21.52426467247106</v>
-      </c>
-      <c r="O6" t="n">
-        <v>205.5178444382804</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
@@ -35179,16 +35181,16 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
+        <v>81.03173866048648</v>
+      </c>
+      <c r="N8" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="N8" t="n">
-        <v>171.5974510766996</v>
       </c>
       <c r="O8" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35413,13 +35415,13 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L11" t="n">
-        <v>181.8947995804632</v>
+        <v>57.40869380266933</v>
       </c>
       <c r="M11" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N11" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O11" t="n">
         <v>150.7019698410586</v>
@@ -35498,16 +35500,16 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>21.52426467247106</v>
       </c>
       <c r="O12" t="n">
-        <v>91.61977832229879</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35647,13 +35649,13 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>181.8947995804632</v>
+        <v>161.4642553288535</v>
       </c>
       <c r="M14" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N14" t="n">
         <v>205.5178444382804</v>
@@ -35729,7 +35731,7 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>91.61977832229879</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M15" t="n">
         <v>205.5178444382804</v>
@@ -35738,7 +35740,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>205.5178444382804</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="P15" t="n">
         <v>184.4883612256069</v>
@@ -35966,7 +35968,7 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>91.0829537758999</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
         <v>241.0142888776591</v>
@@ -35975,13 +35977,13 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P18" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36133,7 +36135,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O20" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P20" t="n">
         <v>90.5657124162131</v>
@@ -36203,16 +36205,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="O21" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N21" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O21" t="n">
-        <v>161.1784674257276</v>
       </c>
       <c r="P21" t="n">
         <v>184.4883612256069</v>
@@ -36437,13 +36439,13 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>226.4350751681936</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -36680,19 +36682,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N27" t="n">
-        <v>113.3808631277494</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36914,10 +36916,10 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>232.285965523585</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M30" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -36929,7 +36931,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37388,22 +37390,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>91.0829537758999</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>241.0142888776591</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="P36" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37625,13 +37627,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>169.9067907798017</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
@@ -37640,7 +37642,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37780,10 +37782,10 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>57.40869380266933</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
         <v>205.5178444382804</v>
@@ -37795,7 +37797,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P41" t="n">
-        <v>90.5657124162131</v>
+        <v>70.1351681646035</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37859,25 +37861,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>127.1185794980173</v>
       </c>
       <c r="N42" t="n">
-        <v>91.61977832229879</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O42" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38017,7 +38019,7 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>181.8947995804632</v>
@@ -38026,13 +38028,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N44" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O44" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P44" t="n">
-        <v>90.5657124162131</v>
+        <v>70.1351681646035</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38096,19 +38098,19 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M45" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N45" t="n">
-        <v>91.61977832229879</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O45" t="n">
-        <v>205.5178444382804</v>
+        <v>12.72573192223796</v>
       </c>
       <c r="P45" t="n">
         <v>184.4883612256069</v>
